--- a/code/实验结果收集表.xlsx
+++ b/code/实验结果收集表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHU\Documents\GitHub\replicator-dynamics\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F978ADF2-4D2F-4E6E-8D73-8F83758C74A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D4CB3-753E-488B-B4C8-A0EA4288BFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="110">
   <si>
     <t>机器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exp3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exp5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,14 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.三策略复制动态仿真实验参数&amp;结果（优化beta）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.三策略复制动态仿真实验参数&amp;结果（附录：双重退火dual annealing）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主机1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +444,18 @@
   </si>
   <si>
     <t>58.5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.三策略复制动态仿真实验参数&amp;结果（调整sit up为固定收益）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.三策略复制动态仿真实验参数&amp;结果（优化beta）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.三策略复制动态仿真实验参数&amp;结果（附录：双重退火dual annealing）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,93 +673,96 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1062,33 +1065,33 @@
     <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="7" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-    </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>3</v>
@@ -1141,14 +1144,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1176,36 +1179,36 @@
         <v>44861</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="33" t="s">
-        <v>66</v>
+      <c r="O3" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="6">
         <v>100</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>69</v>
+      <c r="D4" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="E4" s="6">
         <v>1.5</v>
@@ -1222,28 +1225,28 @@
       <c r="I4" s="6">
         <v>0.5</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="30">
+        <v>44862</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="38">
-        <v>44862</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1262,8 +1265,8 @@
       <c r="F5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>67</v>
+      <c r="G5" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1272,29 +1275,29 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K5" s="5">
         <v>44862</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1316,36 +1319,36 @@
       <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>70</v>
+      <c r="H6" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="I6" s="3">
         <v>0.5</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K6" s="5">
         <v>44862</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1370,386 +1373,342 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>73</v>
+      <c r="I7" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K7" s="5">
         <v>44862</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="6">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="30">
+        <v>44863</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5">
+        <v>44861</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C14" s="19">
+        <v>100</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14" s="19">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="30">
+        <v>44862</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C15" s="3">
         <v>100</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D15" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E15" s="3">
         <v>1.5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F15" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="38">
-        <v>44863</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="G15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="5">
+        <v>44862</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" s="12" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-    </row>
-    <row r="13" spans="1:34" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-    </row>
-    <row r="14" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="5">
-        <v>44862</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-    </row>
-    <row r="15" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14">
-        <v>100</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="38">
-        <v>44862</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-    </row>
-    <row r="16" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>54</v>
@@ -1766,58 +1725,41 @@
       <c r="F16" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
       </c>
       <c r="I16" s="3">
         <v>0.5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K16" s="5">
         <v>44862</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="N16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-    </row>
-    <row r="17" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>54</v>
@@ -1837,567 +1779,986 @@
       <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="3">
-        <v>0.5</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K17" s="5">
         <v>44862</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-    </row>
-    <row r="18" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="19">
         <v>100</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="19">
         <v>50</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="19">
         <v>1.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="G18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="30">
         <v>44863</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-    </row>
-    <row r="19" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="30">
-        <v>0</v>
-      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="35"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-    </row>
-    <row r="20" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+    </row>
+    <row r="20" spans="1:34" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:34" s="10" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+    </row>
+    <row r="22" spans="1:34" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+    </row>
+    <row r="23" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="5">
+        <v>44862</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+    </row>
+    <row r="24" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="12">
+        <v>100</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="30">
+        <v>44862</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+    </row>
+    <row r="25" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="5">
+        <v>44862</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+    </row>
+    <row r="26" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3">
+        <v>50</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="5">
+        <v>44862</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+    </row>
+    <row r="27" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="5">
+        <v>44863</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+    </row>
+    <row r="28" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="12">
+        <v>100</v>
+      </c>
+      <c r="D28" s="12">
+        <v>50</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="J28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="30">
+        <v>44863</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="14">
-        <v>50</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G20" s="31" t="s">
+      <c r="M28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="38">
-        <v>44863</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="14"/>
-    </row>
-    <row r="21" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-    </row>
-    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:34" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="14">
-        <v>100</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3">
-        <v>4</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="3"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="35"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+    </row>
+    <row r="31" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:34" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="12">
+        <v>100</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>4</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="30" t="s">
+      <c r="B38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="31">
+      <c r="B39" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="23">
         <v>2</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H39" s="23">
         <v>0.5</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I39" s="23">
         <v>0.25</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="31">
+      <c r="B40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="23">
         <v>1</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H40" s="23">
         <v>0.25</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I40" s="23">
         <v>1</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="31">
+      <c r="B41" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="23">
         <v>0.5</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H41" s="23">
         <v>0.1</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I41" s="23">
         <v>0.01</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="A11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2423,298 +2784,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>5</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>7</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="16">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="14">
         <v>9</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+      <c r="A12" s="35">
         <v>6</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="17">
         <v>11</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="17">
         <v>12</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
